--- a/Code/ELKVEG2016.xlsx
+++ b/Code/ELKVEG2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usace-my.dps.mil/personal/savannah_k_miller_usace_army_mil/Documents/Documents/Grad School/SFSU IMES/Github/Biol708/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{0C708E2D-537D-46FD-8E99-DF9EB4E6FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B797170-D1C8-4DA8-96DC-1F57C648F939}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{0C708E2D-537D-46FD-8E99-DF9EB4E6FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15AD6B4-0DE2-4C87-85F2-35302E059E1F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="20" windowWidth="21600" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="25">
   <si>
     <t>Reserve</t>
   </si>
@@ -256,6 +256,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649D7C72-B530-4E50-99F2-03823112ED90}">
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3546,16 +3550,6 @@
       <c r="C74" s="5">
         <v>42627</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -3567,16 +3561,6 @@
       <c r="C75" s="5">
         <v>42627</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
@@ -3588,16 +3572,6 @@
       <c r="C76" s="5">
         <v>42627</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
@@ -3609,16 +3583,6 @@
       <c r="C77" s="5">
         <v>42639</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
@@ -3630,16 +3594,6 @@
       <c r="C78" s="5">
         <v>42639</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
@@ -3651,16 +3605,6 @@
       <c r="C79" s="5">
         <v>42639</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
@@ -3672,16 +3616,6 @@
       <c r="C80" s="5">
         <v>42639</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
@@ -3693,16 +3627,6 @@
       <c r="C81" s="5">
         <v>42639</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
@@ -3712,18 +3636,8 @@
         <v>10</v>
       </c>
       <c r="C82" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
+        <v>42641</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -3733,1396 +3647,516 @@
         <v>10</v>
       </c>
       <c r="C83" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="5">
-        <v>42639</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="5">
         <v>42641</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="5">
-        <v>42641</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="5">
-        <v>42620</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="5">
-        <v>42620</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="5">
-        <v>42620</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="5">
-        <v>42620</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="5">
-        <v>42625</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="5">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="5">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="5">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="5">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="5">
-        <v>42625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="5">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="5">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="5">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="5">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="5">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="5">
-        <v>42627</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="5">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="5">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="5">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" s="5">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="5">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="5">
-        <v>42641</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="5">
-        <v>42641</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-    </row>
-    <row r="135" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-    </row>
-    <row r="140" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-    </row>
-    <row r="143" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148"/>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149"/>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-    </row>
-    <row r="153" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-    </row>
-    <row r="154" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-    </row>
-    <row r="155" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-    </row>
-    <row r="156" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-    </row>
-    <row r="157" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-    </row>
-    <row r="158" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-    </row>
-    <row r="159" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-    </row>
-    <row r="160" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-    </row>
-    <row r="161" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-    </row>
-    <row r="162" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-    </row>
-    <row r="163" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-    </row>
-    <row r="164" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-    </row>
-    <row r="165" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-    </row>
-    <row r="166" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-    </row>
-    <row r="167" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-    </row>
-    <row r="168" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-    </row>
-    <row r="169" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-    </row>
-    <row r="170" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-    </row>
-    <row r="171" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-    </row>
-    <row r="172" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-    </row>
-    <row r="173" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-    </row>
-    <row r="174" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-    </row>
-    <row r="175" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
+    </row>
+    <row r="84" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="4:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M133">
-    <sortCondition ref="K2:K133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M83">
+    <sortCondition ref="K2:K83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
